--- a/Output/Bajetta_1994 Bajetta 1994 OS DTIC_IFN parameters.xlsx
+++ b/Output/Bajetta_1994 Bajetta 1994 OS DTIC_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.58822680878078</v>
+        <v>-3.48734749630726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.250481693413968</v>
+        <v>0.242367660737922</v>
       </c>
       <c r="D2" t="n">
         <v>377.588904564751</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.327498708634429</v>
+        <v>0.282416396265322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118770393218704</v>
+        <v>0.11231437447069</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.90225813456849</v>
+        <v>2.81382207634397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237300586670161</v>
+        <v>0.242498989040528</v>
       </c>
       <c r="D2" t="n">
         <v>367.369752739331</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.14817099226754</v>
+        <v>-1.1205857261163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105467977729247</v>
+        <v>0.101912722996449</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.5105798322056</v>
+        <v>-2.48934273642372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127186380028304</v>
+        <v>0.116141918019508</v>
       </c>
       <c r="D2" t="n">
         <v>369.864077138188</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.92005824140022</v>
+        <v>1.86641737773398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188394857236494</v>
+        <v>0.18441970056748</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.06419331756653</v>
+        <v>-3.00530460641232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185570645347155</v>
+        <v>0.175142582567864</v>
       </c>
       <c r="D2" t="n">
         <v>382.340694723414</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0121285462350868</v>
+        <v>0.00745643115831869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0163362747356503</v>
+        <v>0.0142202203186205</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0627410787355289</v>
+        <v>0.0587420829715727</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0232967607253938</v>
+        <v>-0.0229317679615367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0232967607253938</v>
+        <v>-0.0229317679615367</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0141064063053257</v>
+        <v>0.0126145187127423</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0563115684340025</v>
+        <v>0.0588057596856783</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.021248020735707</v>
+        <v>-0.021909225552673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.021248020735707</v>
+        <v>-0.021909225552673</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0111234943262969</v>
+        <v>0.010386203108551</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0161763752647042</v>
+        <v>0.0134889451212501</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00921423442182592</v>
+        <v>0.00574248268227631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00921423442182592</v>
+        <v>0.00574248268227631</v>
       </c>
       <c r="B3" t="n">
-        <v>0.035492622233159</v>
+        <v>0.034010625957399</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0344364644145594</v>
+        <v>0.0306749242285411</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00195349293902929</v>
+        <v>-0.00183131118844048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00195349293902929</v>
+        <v>-0.00183131118844048</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000266873872238646</v>
+        <v>0.000202214665910108</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Bajetta_1994 Bajetta 1994 OS DTIC_IFN parameters.xlsx
+++ b/Output/Bajetta_1994 Bajetta 1994 OS DTIC_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.48734749630726</v>
+        <v>-3.58822680878078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242367660737922</v>
+        <v>0.250481693413968</v>
       </c>
       <c r="D2" t="n">
         <v>377.588904564751</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.282416396265322</v>
+        <v>0.327498708634429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11231437447069</v>
+        <v>0.118770393218704</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.81382207634397</v>
+        <v>2.90225813456849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242498989040528</v>
+        <v>0.237300586670161</v>
       </c>
       <c r="D2" t="n">
         <v>367.369752739331</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.1205857261163</v>
+        <v>-1.14817099226754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.101912722996449</v>
+        <v>0.105467977729247</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.48934273642372</v>
+        <v>-2.5105798322056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.116141918019508</v>
+        <v>0.127186380028304</v>
       </c>
       <c r="D2" t="n">
         <v>369.864077138188</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.86641737773398</v>
+        <v>0.647579535658755</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18441970056748</v>
+        <v>0.0977150205592001</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.00530460641232</v>
+        <v>-3.06419331756653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.175142582567864</v>
+        <v>0.185570645347155</v>
       </c>
       <c r="D2" t="n">
         <v>382.340694723414</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00745643115831869</v>
+        <v>0.0121285462350868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0142202203186205</v>
+        <v>0.0163362747356503</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0587420829715727</v>
+        <v>0.0627410787355289</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0229317679615367</v>
+        <v>-0.0232967607253938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0229317679615367</v>
+        <v>-0.0232967607253938</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0126145187127423</v>
+        <v>0.0141064063053257</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0588057596856783</v>
+        <v>0.0563115684340025</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.021909225552673</v>
+        <v>-0.021248020735707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.021909225552673</v>
+        <v>-0.021248020735707</v>
       </c>
       <c r="B3" t="n">
-        <v>0.010386203108551</v>
+        <v>0.0111234943262969</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0134889451212501</v>
+        <v>0.0161763752647042</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00574248268227631</v>
+        <v>0.00484636394239416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00574248268227631</v>
+        <v>0.00484636394239416</v>
       </c>
       <c r="B3" t="n">
-        <v>0.034010625957399</v>
+        <v>0.00954822524288489</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0306749242285411</v>
+        <v>0.0344364644145594</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00183131118844048</v>
+        <v>-0.00195349293902929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00183131118844048</v>
+        <v>-0.00195349293902929</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000202214665910108</v>
+        <v>0.000266873872238646</v>
       </c>
     </row>
   </sheetData>
